--- a/data/trans_orig/P19C01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>143596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122634</v>
+        <v>123816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162046</v>
+        <v>163641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3702766437293036</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3162259195403777</v>
+        <v>0.3192726292795133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4178542315847484</v>
+        <v>0.4219651727842693</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -765,19 +765,19 @@
         <v>110644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94682</v>
+        <v>95017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126915</v>
+        <v>127374</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4124087145114084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3529136124923342</v>
+        <v>0.354162490550315</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4730571549212908</v>
+        <v>0.4747668341281248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -786,19 +786,19 @@
         <v>254240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>230296</v>
+        <v>229038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>280219</v>
+        <v>279365</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3875051370605552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3510110250802891</v>
+        <v>0.3490926617117631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4271024389650991</v>
+        <v>0.4258007890428576</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>244210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225760</v>
+        <v>224165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265172</v>
+        <v>263990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6297233562706964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5821457684152513</v>
+        <v>0.5780348272157307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6837740804596223</v>
+        <v>0.6807273707204866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -836,19 +836,19 @@
         <v>157643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141372</v>
+        <v>140913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173605</v>
+        <v>173270</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5875912854885916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5269428450787093</v>
+        <v>0.5252331658718753</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6470863875076658</v>
+        <v>0.6458375094496851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>387</v>
@@ -857,19 +857,19 @@
         <v>401854</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>375875</v>
+        <v>376729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425798</v>
+        <v>427056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6124948629394448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.572897561034901</v>
+        <v>0.5741992109571422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.648988974919711</v>
+        <v>0.6509073382882369</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>92592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75935</v>
+        <v>76135</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110392</v>
+        <v>110705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3084287593311407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2529450927619409</v>
+        <v>0.2536086827965692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3677229742614195</v>
+        <v>0.3687635905794306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -982,19 +982,19 @@
         <v>126391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108114</v>
+        <v>110207</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145537</v>
+        <v>144395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3789091466360725</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3241179426763028</v>
+        <v>0.3303928448198023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4363091747339793</v>
+        <v>0.4328841592712235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>208</v>
@@ -1003,19 +1003,19 @@
         <v>218983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194653</v>
+        <v>196140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247130</v>
+        <v>244470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3455238603627254</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3071345057052697</v>
+        <v>0.3094808433326431</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3899365697071128</v>
+        <v>0.3857391344831014</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>207613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>189813</v>
+        <v>189500</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>224270</v>
+        <v>224070</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6915712406688593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6322770257385806</v>
+        <v>0.6312364094205694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.747054907238059</v>
+        <v>0.7463913172034308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -1053,19 +1053,19 @@
         <v>207174</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>188028</v>
+        <v>189170</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>225451</v>
+        <v>223358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6210908533639274</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5636908252660209</v>
+        <v>0.5671158407287766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6758820573236974</v>
+        <v>0.6696071551801978</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>399</v>
@@ -1074,19 +1074,19 @@
         <v>414787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>386640</v>
+        <v>389300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>439117</v>
+        <v>437630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6544761396372746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6100634302928878</v>
+        <v>0.6142608655168984</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6928654942947304</v>
+        <v>0.6905191566673566</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>117116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100336</v>
+        <v>101069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138203</v>
+        <v>139451</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2721938232877602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2331940344909527</v>
+        <v>0.2348983236174902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3212029327804961</v>
+        <v>0.3241031686699806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1199,19 +1199,19 @@
         <v>49115</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38708</v>
+        <v>38678</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61571</v>
+        <v>60279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3506544016186531</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2763516314539999</v>
+        <v>0.2761380679517138</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4395794987927568</v>
+        <v>0.4303532703890023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -1220,19 +1220,19 @@
         <v>166231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143694</v>
+        <v>144949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188485</v>
+        <v>188446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2914628916400643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2519470405635946</v>
+        <v>0.2541470747458218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3304807528231734</v>
+        <v>0.3304131071215158</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>313151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292064</v>
+        <v>290816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329931</v>
+        <v>329198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7278061767122399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6787970672195039</v>
+        <v>0.6758968313300193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7668059655090472</v>
+        <v>0.7651016763825098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -1270,19 +1270,19 @@
         <v>90953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78497</v>
+        <v>79789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101360</v>
+        <v>101390</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6493455983813469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5604205012072436</v>
+        <v>0.5696467296109979</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7236483685460005</v>
+        <v>0.7238619320482863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>398</v>
@@ -1291,19 +1291,19 @@
         <v>404104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>381850</v>
+        <v>381889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>426641</v>
+        <v>425386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7085371083599357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6695192471768266</v>
+        <v>0.6695868928784843</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7480529594364054</v>
+        <v>0.7458529252541783</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>211592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186587</v>
+        <v>185524</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>238569</v>
+        <v>238153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2428035103031121</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2141099025730068</v>
+        <v>0.2128904043761153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2737592296794618</v>
+        <v>0.2732824144699373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -1416,19 +1416,19 @@
         <v>198750</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177260</v>
+        <v>175962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225404</v>
+        <v>223280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3338546489302304</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2977564243797171</v>
+        <v>0.2955766713232509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3786276649819368</v>
+        <v>0.3750596891716608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>397</v>
@@ -1437,19 +1437,19 @@
         <v>410342</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>375735</v>
+        <v>379346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>445422</v>
+        <v>446904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2797583853540081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2561644238754444</v>
+        <v>0.2586266673866219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3036752914063859</v>
+        <v>0.3046851377018159</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>659862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>632885</v>
+        <v>633301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>684867</v>
+        <v>685930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7571964896968879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7262407703205381</v>
+        <v>0.7267175855300626</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7858900974269932</v>
+        <v>0.7871095956238846</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>387</v>
@@ -1487,19 +1487,19 @@
         <v>396568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369914</v>
+        <v>372038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418058</v>
+        <v>419356</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6661453510697696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.621372335018063</v>
+        <v>0.6249403108283393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7022435756202825</v>
+        <v>0.7044233286767491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1046</v>
@@ -1508,19 +1508,19 @@
         <v>1056430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1021350</v>
+        <v>1019868</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1091037</v>
+        <v>1087426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7202416146459919</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6963247085936142</v>
+        <v>0.6953148622981835</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7438355761245556</v>
+        <v>0.7413733326133781</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>70280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56461</v>
+        <v>56666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85014</v>
+        <v>85677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2834720470292562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2277330582385361</v>
+        <v>0.2285600361341623</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3428988932327799</v>
+        <v>0.3455747956466598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -1633,19 +1633,19 @@
         <v>131667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112089</v>
+        <v>113105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>152656</v>
+        <v>152051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2886928768213588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2457660611090797</v>
+        <v>0.2479933740429979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3347123146186213</v>
+        <v>0.333386984495307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>188</v>
@@ -1654,19 +1654,19 @@
         <v>201947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>178444</v>
+        <v>179303</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226602</v>
+        <v>228460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2868542793878865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2534690937722907</v>
+        <v>0.2546891623724342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3218745772880297</v>
+        <v>0.3245133161287914</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>177647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162913</v>
+        <v>162250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191466</v>
+        <v>191261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7165279529707438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6571011067672204</v>
+        <v>0.6544252043533405</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7722669417614643</v>
+        <v>0.7714399638658377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>311</v>
@@ -1704,19 +1704,19 @@
         <v>324413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>303424</v>
+        <v>304029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>343991</v>
+        <v>342975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7113071231786412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6652876853813786</v>
+        <v>0.6666130155046931</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7542339388909203</v>
+        <v>0.7520066259570022</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>485</v>
@@ -1725,19 +1725,19 @@
         <v>502060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>477405</v>
+        <v>475547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>525563</v>
+        <v>524704</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7131457206121135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6781254227119704</v>
+        <v>0.6754866838712086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7465309062277092</v>
+        <v>0.7453108376275658</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>94788</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80831</v>
+        <v>80163</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108999</v>
+        <v>109579</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4466209789182729</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3808619988824443</v>
+        <v>0.3777118586592032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5135795209885886</v>
+        <v>0.5163131547894526</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>247</v>
@@ -1850,19 +1850,19 @@
         <v>242424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>215357</v>
+        <v>215075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>267848</v>
+        <v>269732</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.256366590192176</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2277424649290346</v>
+        <v>0.2274448574971069</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2832525878167853</v>
+        <v>0.2852448719176993</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>345</v>
@@ -1871,19 +1871,19 @@
         <v>337212</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>307782</v>
+        <v>308637</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>365760</v>
+        <v>369259</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2912401520455952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2658218508418709</v>
+        <v>0.2665609999774554</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3158960800488397</v>
+        <v>0.3189184161064709</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>117445</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>103234</v>
+        <v>102654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131402</v>
+        <v>132070</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5533790210817271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4864204790114114</v>
+        <v>0.4836868452105472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6191380011175558</v>
+        <v>0.6222881413407968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>694</v>
@@ -1921,19 +1921,19 @@
         <v>703192</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>677768</v>
+        <v>675884</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>730259</v>
+        <v>730541</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.743633409807824</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7167474121832148</v>
+        <v>0.7147551280823007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7722575350709656</v>
+        <v>0.7725551425028933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>815</v>
@@ -1942,19 +1942,19 @@
         <v>820637</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>792089</v>
+        <v>788590</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>850067</v>
+        <v>849212</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7087598479544048</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6841039199511603</v>
+        <v>0.6810815838935288</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7341781491581285</v>
+        <v>0.7334390000225445</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>729964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>688620</v>
+        <v>680553</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>780758</v>
+        <v>775619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2979574764141644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2810819783999097</v>
+        <v>0.2777890641936241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3186907444462385</v>
+        <v>0.3165929620736915</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>838</v>
@@ -2067,19 +2067,19 @@
         <v>858991</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>808468</v>
+        <v>810135</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>907469</v>
+        <v>907403</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3136224881881769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2951761321928557</v>
+        <v>0.2957847495498713</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3313219982480783</v>
+        <v>0.3312980281774862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1548</v>
@@ -2088,19 +2088,19 @@
         <v>1588955</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1529358</v>
+        <v>1527744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1656494</v>
+        <v>1662477</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3062262879265655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.294740801808701</v>
+        <v>0.2944297253785791</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3192425163871133</v>
+        <v>0.3203956728469934</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1719928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1669134</v>
+        <v>1674273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1761272</v>
+        <v>1769339</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7020425235858356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6813092555537615</v>
+        <v>0.6834070379263086</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7189180216000904</v>
+        <v>0.7222109358063759</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1839</v>
@@ -2138,19 +2138,19 @@
         <v>1879942</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1831464</v>
+        <v>1831530</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1930465</v>
+        <v>1928798</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6863775118118232</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6686780017519218</v>
+        <v>0.6687019718225138</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7048238678071443</v>
+        <v>0.7042152504501287</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3530</v>
@@ -2159,19 +2159,19 @@
         <v>3599870</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3532331</v>
+        <v>3526348</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3659467</v>
+        <v>3661081</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6937737120734345</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6807574836128867</v>
+        <v>0.6796043271530066</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.705259198191299</v>
+        <v>0.7055702746214209</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>144144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123605</v>
+        <v>125668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166084</v>
+        <v>167033</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.364603012542104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3126529657023525</v>
+        <v>0.3178696641497991</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4200989116022043</v>
+        <v>0.4225011893240129</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -2526,19 +2526,19 @@
         <v>134735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116777</v>
+        <v>117605</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151475</v>
+        <v>154411</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4583550054953743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.397262159003646</v>
+        <v>0.4000783104058817</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5153031445898223</v>
+        <v>0.5252887324284102</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>257</v>
@@ -2547,19 +2547,19 @@
         <v>278879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253594</v>
+        <v>252301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307622</v>
+        <v>305565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4045839536064318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.367900814368951</v>
+        <v>0.3660249783963054</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4462824098875895</v>
+        <v>0.4432979811432759</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>251200</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229260</v>
+        <v>228311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271739</v>
+        <v>269676</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.635396987457896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.579901088397796</v>
+        <v>0.5774988106759872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6873470342976475</v>
+        <v>0.6821303358502011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -2597,19 +2597,19 @@
         <v>159219</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142479</v>
+        <v>139543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>177177</v>
+        <v>176349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5416449945046257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4846968554101774</v>
+        <v>0.47471126757159</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6027378409963541</v>
+        <v>0.5999216895941184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>373</v>
@@ -2618,19 +2618,19 @@
         <v>410420</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381677</v>
+        <v>383734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435705</v>
+        <v>436998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5954160463935682</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5537175901124105</v>
+        <v>0.556702018856724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6320991856310491</v>
+        <v>0.6339750216036946</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>141073</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120269</v>
+        <v>121283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163650</v>
+        <v>162763</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3676414687436524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3134269587970314</v>
+        <v>0.3160674026373349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4264786699076624</v>
+        <v>0.4241668814680157</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -2743,19 +2743,19 @@
         <v>143713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126260</v>
+        <v>125065</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162491</v>
+        <v>160179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4584147369198083</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4027426582796572</v>
+        <v>0.3989303299552628</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5183112837345528</v>
+        <v>0.5109370318815332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>247</v>
@@ -2764,19 +2764,19 @@
         <v>284786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>256320</v>
+        <v>260103</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312523</v>
+        <v>314603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4084568472271695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3676290003715564</v>
+        <v>0.3730550281392467</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4482378907720512</v>
+        <v>0.4512221242097894</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>242651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>220074</v>
+        <v>220961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263455</v>
+        <v>262441</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6323585312563476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5735213300923372</v>
+        <v>0.5758331185319842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6865730412029685</v>
+        <v>0.6839325973626651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>157</v>
@@ -2814,19 +2814,19 @@
         <v>169788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151010</v>
+        <v>153322</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187241</v>
+        <v>188436</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5415852630801917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4816887162654472</v>
+        <v>0.4890629681184668</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5972573417203428</v>
+        <v>0.6010696700447372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>378</v>
@@ -2835,19 +2835,19 @@
         <v>412439</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>384702</v>
+        <v>382622</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>440905</v>
+        <v>437122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5915431527728305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5517621092279489</v>
+        <v>0.5487778757902104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6323709996284436</v>
+        <v>0.6269449718607527</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>141405</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119899</v>
+        <v>120351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162620</v>
+        <v>161155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.26406732397007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2239060035823413</v>
+        <v>0.2247495116342639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.303686047483142</v>
+        <v>0.3009507017552124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2960,19 +2960,19 @@
         <v>78234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65216</v>
+        <v>63066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93945</v>
+        <v>92146</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3251147626570413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2710135275727891</v>
+        <v>0.262080007878039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.390402211677443</v>
+        <v>0.382925825121669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -2981,19 +2981,19 @@
         <v>219639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192858</v>
+        <v>193804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244903</v>
+        <v>246435</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2829950117466276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2484885410919544</v>
+        <v>0.2497070410470602</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3155459522101824</v>
+        <v>0.3175199189418874</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>394083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>372868</v>
+        <v>374333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415589</v>
+        <v>415137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.73593267602993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6963139525168579</v>
+        <v>0.6990492982447876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7760939964176585</v>
+        <v>0.7752504883657361</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -3031,19 +3031,19 @@
         <v>162402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146691</v>
+        <v>148490</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175420</v>
+        <v>177570</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6748852373429587</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.609597788322557</v>
+        <v>0.6170741748783327</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.728986472427211</v>
+        <v>0.7379199921219611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>525</v>
@@ -3052,19 +3052,19 @@
         <v>556485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531221</v>
+        <v>529689</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>583266</v>
+        <v>582320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7170049882533724</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6844540477898177</v>
+        <v>0.6824800810581124</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7515114589080456</v>
+        <v>0.7502929589529397</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>231782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>206141</v>
+        <v>206288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>259678</v>
+        <v>260549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2382804308299624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2119202171775001</v>
+        <v>0.2120711998888122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2669584164395103</v>
+        <v>0.267854068029357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>231</v>
@@ -3177,19 +3177,19 @@
         <v>248136</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222064</v>
+        <v>222548</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274135</v>
+        <v>273476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3555320356286844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3181747758284295</v>
+        <v>0.3188682428548479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3927823584353008</v>
+        <v>0.3918380287811242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>448</v>
@@ -3198,19 +3198,19 @@
         <v>479918</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>442250</v>
+        <v>439204</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>519335</v>
+        <v>519773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2872631389923114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2647162841405377</v>
+        <v>0.2628928561098806</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3108565286486965</v>
+        <v>0.3111187779569013</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>740947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>713051</v>
+        <v>712180</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>766588</v>
+        <v>766441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7617195691700376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7330415835604899</v>
+        <v>0.7321459319706429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7880797828224999</v>
+        <v>0.7879288001111877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>415</v>
@@ -3248,19 +3248,19 @@
         <v>449794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>423795</v>
+        <v>424454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475866</v>
+        <v>475382</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6444679643713157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6072176415646994</v>
+        <v>0.6081619712188764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6818252241715707</v>
+        <v>0.6811317571451522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1110</v>
@@ -3269,19 +3269,19 @@
         <v>1190740</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1151323</v>
+        <v>1150885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1228408</v>
+        <v>1231454</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7127368610076886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6891434713513035</v>
+        <v>0.6888812220430983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7352837158594623</v>
+        <v>0.7371071438901193</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>85067</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69741</v>
+        <v>69767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102640</v>
+        <v>103698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2109218261387603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1729209259082078</v>
+        <v>0.1729849441122122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2544934730481</v>
+        <v>0.2571172579522215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -3394,19 +3394,19 @@
         <v>173873</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150392</v>
+        <v>150863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196804</v>
+        <v>197837</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2595801155912017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2245243422421405</v>
+        <v>0.2252281884804837</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2938147886208697</v>
+        <v>0.2953575176343819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>246</v>
@@ -3415,19 +3415,19 @@
         <v>258940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231204</v>
+        <v>227373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>288440</v>
+        <v>286484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.241293064279362</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2154471633610581</v>
+        <v>0.2118771137334645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2687822739317126</v>
+        <v>0.2669596994802694</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>318245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>300672</v>
+        <v>299614</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333571</v>
+        <v>333545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7890781738612398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7455065269518999</v>
+        <v>0.7428827420477789</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8270790740917922</v>
+        <v>0.8270150558877878</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>458</v>
@@ -3465,19 +3465,19 @@
         <v>495950</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>473019</v>
+        <v>471986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>519431</v>
+        <v>518960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7404198844087984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7061852113791302</v>
+        <v>0.7046424823656179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7754756577578592</v>
+        <v>0.7747718115195162</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>762</v>
@@ -3486,19 +3486,19 @@
         <v>814195</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>784695</v>
+        <v>786651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>841931</v>
+        <v>845762</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.758706935720638</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7312177260682882</v>
+        <v>0.7330403005197308</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7845528366389422</v>
+        <v>0.7881228862665356</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>112378</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>98293</v>
+        <v>97513</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126684</v>
+        <v>127371</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5080319274025596</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.444356885586525</v>
+        <v>0.4408314734006785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5727050197272503</v>
+        <v>0.5758106910702222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -3611,19 +3611,19 @@
         <v>297920</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>270253</v>
+        <v>269264</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>328915</v>
+        <v>325698</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3219421746680344</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2920441723909175</v>
+        <v>0.2909748227256594</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3554362687977694</v>
+        <v>0.3519594846553391</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>392</v>
@@ -3632,19 +3632,19 @@
         <v>410299</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>379477</v>
+        <v>376498</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>442813</v>
+        <v>441949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3578430995387321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3309615619294977</v>
+        <v>0.3283642085487278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3862008251006949</v>
+        <v>0.3854475082853878</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>108825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94519</v>
+        <v>93832</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122910</v>
+        <v>123690</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4919680725974404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4272949802727497</v>
+        <v>0.4241893089297776</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.555643114413475</v>
+        <v>0.5591685265993214</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>589</v>
@@ -3682,19 +3682,19 @@
         <v>627465</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>596470</v>
+        <v>599687</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>655132</v>
+        <v>656121</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6780578253319656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6445637312022309</v>
+        <v>0.6480405153446609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7079558276090826</v>
+        <v>0.7090251772743407</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>698</v>
@@ -3703,19 +3703,19 @@
         <v>736289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>703775</v>
+        <v>704639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>767111</v>
+        <v>770090</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6421569004612679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6137991748993052</v>
+        <v>0.6145524917146122</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6690384380705023</v>
+        <v>0.6716357914512723</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>855849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>804211</v>
+        <v>804097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>907126</v>
+        <v>908584</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2939244191937854</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2761903775461258</v>
+        <v>0.2761511406999773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3115345775563303</v>
+        <v>0.312035265615243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>998</v>
@@ -3828,19 +3828,19 @@
         <v>1076613</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1021275</v>
+        <v>1020001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1129540</v>
+        <v>1132172</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3427361610842989</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3251195883489382</v>
+        <v>0.3247137806501257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3595851978102144</v>
+        <v>0.3604232524936754</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1797</v>
@@ -3849,19 +3849,19 @@
         <v>1932462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1862171</v>
+        <v>1855821</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2006318</v>
+        <v>2010308</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3192553532006486</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3076427092385104</v>
+        <v>0.3065936730295115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3314567672461444</v>
+        <v>0.3321159175413545</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2055951</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2004674</v>
+        <v>2003216</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2107589</v>
+        <v>2107703</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7060755808062147</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6884654224436695</v>
+        <v>0.687964734384757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7238096224538738</v>
+        <v>0.7238488593000226</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1912</v>
@@ -3899,19 +3899,19 @@
         <v>2064617</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2011690</v>
+        <v>2009058</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2119955</v>
+        <v>2121229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6572638389157011</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6404148021897859</v>
+        <v>0.6395767475063246</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6748804116510619</v>
+        <v>0.6752862193498745</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3846</v>
@@ -3920,19 +3920,19 @@
         <v>4120568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4046712</v>
+        <v>4042722</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4190859</v>
+        <v>4197209</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6807446467993514</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6685432327538553</v>
+        <v>0.6678840824586455</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6923572907614896</v>
+        <v>0.6934063269704884</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>198461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178619</v>
+        <v>178541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219374</v>
+        <v>218417</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5120075624447866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4608174567918628</v>
+        <v>0.4606144263086096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5659594577431303</v>
+        <v>0.5634918504958858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -4287,19 +4287,19 @@
         <v>167421</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149540</v>
+        <v>150241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184443</v>
+        <v>186055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5301205966879472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4735033992837958</v>
+        <v>0.475722395814378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5840205022485823</v>
+        <v>0.5891235683290308</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -4308,19 +4308,19 @@
         <v>365882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>335245</v>
+        <v>339418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>390592</v>
+        <v>393037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5201396961479191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4765868234256377</v>
+        <v>0.4825188903874999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5552680534032397</v>
+        <v>0.5587430260919155</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>189153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168240</v>
+        <v>169197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208995</v>
+        <v>209073</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4879924375552134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4340405422568696</v>
+        <v>0.4365081495041142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5391825432081369</v>
+        <v>0.5393855736913904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -4358,19 +4358,19 @@
         <v>148395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>131373</v>
+        <v>129761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166276</v>
+        <v>165575</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4698794033120528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4159794977514177</v>
+        <v>0.4108764316709693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5264966007162042</v>
+        <v>0.5242776041856221</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -4379,19 +4379,19 @@
         <v>337548</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>312838</v>
+        <v>310393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>368185</v>
+        <v>364012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4798603038520809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4447319465967603</v>
+        <v>0.4412569739080848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5234131765743623</v>
+        <v>0.5174811096125006</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>146980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128740</v>
+        <v>128764</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165582</v>
+        <v>164611</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4641612900788105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4065599980838402</v>
+        <v>0.4066344795807542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5229052779264439</v>
+        <v>0.5198371910305534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -4504,19 +4504,19 @@
         <v>180837</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>163527</v>
+        <v>161287</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200765</v>
+        <v>199710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.542117052781722</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4902269669125059</v>
+        <v>0.4835106583606341</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6018598555317662</v>
+        <v>0.5986969582324922</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>315</v>
@@ -4525,19 +4525,19 @@
         <v>327817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>300028</v>
+        <v>303784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>353422</v>
+        <v>356693</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5041532307952082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4614166318645001</v>
+        <v>0.4671939117033837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.543531797463131</v>
+        <v>0.5485624048050701</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>169678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>151076</v>
+        <v>152047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>187918</v>
+        <v>187894</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5358387099211895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4770947220735561</v>
+        <v>0.4801628089694466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5934400019161591</v>
+        <v>0.5933655204192457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -4575,19 +4575,19 @@
         <v>152738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132810</v>
+        <v>133865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170048</v>
+        <v>172288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.457882947218278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3981401444682329</v>
+        <v>0.4013030417675077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5097730330874939</v>
+        <v>0.5164893416393659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>298</v>
@@ -4596,19 +4596,19 @@
         <v>322415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>296810</v>
+        <v>293539</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>350204</v>
+        <v>346448</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4958467692047918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4564682025368691</v>
+        <v>0.4514375951949299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5385833681355</v>
+        <v>0.5328060882966164</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>152351</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134200</v>
+        <v>132639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173923</v>
+        <v>170809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3759805570665732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3311863790993438</v>
+        <v>0.3273340611371615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4292150081873214</v>
+        <v>0.4215307717685589</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -4721,19 +4721,19 @@
         <v>47138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35620</v>
+        <v>36929</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58358</v>
+        <v>59645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3381010881196424</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2554820312962798</v>
+        <v>0.2648718535560518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.418577193815267</v>
+        <v>0.4278065761655315</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -4742,19 +4742,19 @@
         <v>199490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>178219</v>
+        <v>175280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222206</v>
+        <v>223093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3662837266988893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3272284572767188</v>
+        <v>0.3218305447642269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4079914469356508</v>
+        <v>0.4096202915267586</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>252860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>231288</v>
+        <v>234402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271011</v>
+        <v>272572</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6240194429334268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5707849918126786</v>
+        <v>0.5784692282314405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.668813620900656</v>
+        <v>0.6726659388628382</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -4792,19 +4792,19 @@
         <v>92283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81063</v>
+        <v>79776</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103801</v>
+        <v>102492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6618989118803575</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5814228061847331</v>
+        <v>0.5721934238344687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7445179687037202</v>
+        <v>0.7351281464439483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>326</v>
@@ -4813,19 +4813,19 @@
         <v>345143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>322427</v>
+        <v>321540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>366414</v>
+        <v>369353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6337162733011108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.592008553064349</v>
+        <v>0.5903797084732407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6727715427232809</v>
+        <v>0.6781694552357729</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>322218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>293010</v>
+        <v>292919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351801</v>
+        <v>354778</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3663634369123566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3331529950640749</v>
+        <v>0.3330501269687065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3999987186773394</v>
+        <v>0.4033837334025264</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>265</v>
@@ -4938,19 +4938,19 @@
         <v>270690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245005</v>
+        <v>247188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297152</v>
+        <v>296427</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3957277979419718</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3581783891868064</v>
+        <v>0.3613691001712874</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4344131122825627</v>
+        <v>0.4333526568559566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>571</v>
@@ -4959,19 +4959,19 @@
         <v>592909</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>553727</v>
+        <v>556408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>633168</v>
+        <v>634428</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3792100483336322</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3541507512328373</v>
+        <v>0.3558650083306013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4049588056501349</v>
+        <v>0.405765087051759</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>557287</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>527704</v>
+        <v>524727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>586495</v>
+        <v>586586</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6336365630876434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6000012813226607</v>
+        <v>0.5966162665974737</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6668470049359251</v>
+        <v>0.6669498730312936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>399</v>
@@ -5009,19 +5009,19 @@
         <v>413341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>386879</v>
+        <v>387604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439026</v>
+        <v>436843</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6042722020580282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5655868877174373</v>
+        <v>0.5666473431440433</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6418216108131936</v>
+        <v>0.6386308998287126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>933</v>
@@ -5030,19 +5030,19 @@
         <v>970627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>930368</v>
+        <v>929108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1009809</v>
+        <v>1007128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6207899516663677</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5950411943498648</v>
+        <v>0.5942349129482413</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6458492487671625</v>
+        <v>0.6441349916693988</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>128078</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109161</v>
+        <v>109988</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146620</v>
+        <v>147969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3012397671181669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.256746851975752</v>
+        <v>0.2586919676995273</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3448517785778775</v>
+        <v>0.3480227933794057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>203</v>
@@ -5155,19 +5155,19 @@
         <v>210424</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189797</v>
+        <v>187118</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235806</v>
+        <v>231980</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3774549846184436</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3404539059361604</v>
+        <v>0.3356487385923755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4229840216859355</v>
+        <v>0.4161223475941795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>326</v>
@@ -5176,19 +5176,19 @@
         <v>338502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>306658</v>
+        <v>310897</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>367728</v>
+        <v>370745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3444784771720497</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3120725527037419</v>
+        <v>0.3163866846469005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3742202729122258</v>
+        <v>0.377290518024787</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>297091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>278549</v>
+        <v>277200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316008</v>
+        <v>315181</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6987602328818332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6551482214221225</v>
+        <v>0.6519772066205942</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.743253148024248</v>
+        <v>0.7413080323004727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>331</v>
@@ -5226,19 +5226,19 @@
         <v>347057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>321675</v>
+        <v>325501</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>367684</v>
+        <v>370363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6225450153815564</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5770159783140646</v>
+        <v>0.5838776524058205</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6595460940638398</v>
+        <v>0.6643512614076245</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>617</v>
@@ -5247,19 +5247,19 @@
         <v>644148</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>614922</v>
+        <v>611905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>675992</v>
+        <v>671753</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6555215228279503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6257797270877742</v>
+        <v>0.6227094819752127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6879274472962581</v>
+        <v>0.6836133153530994</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>133029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116346</v>
+        <v>118772</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>148949</v>
+        <v>148379</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5507351751445195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4816682573198515</v>
+        <v>0.4917104941935569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6166428665856476</v>
+        <v>0.6142835569313426</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>348</v>
@@ -5372,19 +5372,19 @@
         <v>365064</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>337057</v>
+        <v>335737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>398160</v>
+        <v>389907</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4423464963344283</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4084105739812654</v>
+        <v>0.4068117608344617</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4824489949454887</v>
+        <v>0.4724489880860903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>474</v>
@@ -5393,19 +5393,19 @@
         <v>498093</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>468916</v>
+        <v>463607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>532549</v>
+        <v>528687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4668873382564941</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4395387433751928</v>
+        <v>0.4345621676064336</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4991849914214532</v>
+        <v>0.4955646527995256</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>108519</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92599</v>
+        <v>93169</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125202</v>
+        <v>122776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4492648248554805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3833571334143525</v>
+        <v>0.3857164430686574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5183317426801485</v>
+        <v>0.5082895058064429</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>420</v>
@@ -5443,19 +5443,19 @@
         <v>460225</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>427129</v>
+        <v>435382</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>488232</v>
+        <v>489552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5576535036655716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5175510050545113</v>
+        <v>0.5275510119139096</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5915894260187345</v>
+        <v>0.5931882391655383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>524</v>
@@ -5464,19 +5464,19 @@
         <v>568744</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>534288</v>
+        <v>538150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>597921</v>
+        <v>603230</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5331126617435059</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5008150085785468</v>
+        <v>0.5044353472004743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5604612566248073</v>
+        <v>0.5654378323935664</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1081118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1026057</v>
+        <v>1025954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1131938</v>
+        <v>1133743</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4070927976691628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3863594036693024</v>
+        <v>0.3863207523580087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4262288312239016</v>
+        <v>0.4269083796008893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1197</v>
@@ -5589,19 +5589,19 @@
         <v>1241573</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1188532</v>
+        <v>1190832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1301859</v>
+        <v>1294134</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4347834674938956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4162089421795761</v>
+        <v>0.4170143198343187</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.455894702286312</v>
+        <v>0.4531894490333914</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2226</v>
@@ -5610,19 +5610,19 @@
         <v>2322692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2251104</v>
+        <v>2242526</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2395894</v>
+        <v>2395686</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4214403337390212</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4084511955121036</v>
+        <v>0.4068946053908077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4347225828978027</v>
+        <v>0.4346847728648464</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1574587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1523767</v>
+        <v>1521962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1629648</v>
+        <v>1629751</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5929072023308372</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.573771168776098</v>
+        <v>0.5730916203991105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6136405963306976</v>
+        <v>0.6136792476419912</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1519</v>
@@ -5660,19 +5660,19 @@
         <v>1614040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1553754</v>
+        <v>1561479</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1667081</v>
+        <v>1664781</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5652165325061044</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5441052977136881</v>
+        <v>0.5468105509666087</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.583791057820424</v>
+        <v>0.5829856801656815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3013</v>
@@ -5681,19 +5681,19 @@
         <v>3188626</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3115424</v>
+        <v>3115632</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3260214</v>
+        <v>3268792</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5785596662609788</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5652774171021974</v>
+        <v>0.5653152271351538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5915488044878965</v>
+        <v>0.5931053946091922</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>369217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>346831</v>
+        <v>348184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>392032</v>
+        <v>392196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6809422146414498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6396565543171903</v>
+        <v>0.6421516685082876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7230202353504639</v>
+        <v>0.7233216533493745</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>452</v>
@@ -6048,19 +6048,19 @@
         <v>323518</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>304145</v>
+        <v>304830</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>341549</v>
+        <v>341684</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.67213834999358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6318880393041717</v>
+        <v>0.6333110238527819</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7095984582027848</v>
+        <v>0.7098793196908465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>818</v>
@@ -6069,19 +6069,19 @@
         <v>692735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>664304</v>
+        <v>663216</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>721566</v>
+        <v>720754</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6768021435943872</v>
+        <v>0.6768021435943873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6490255234526869</v>
+        <v>0.6479627571320213</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7049699171376679</v>
+        <v>0.7041765314060473</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>172998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150183</v>
+        <v>150019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195384</v>
+        <v>194031</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3190577853585504</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2769797646495363</v>
+        <v>0.2766783466506259</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3603434456828098</v>
+        <v>0.3578483314917124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>223</v>
@@ -6119,19 +6119,19 @@
         <v>157809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139778</v>
+        <v>139643</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>177182</v>
+        <v>176497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3278616500064199</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2904015417972151</v>
+        <v>0.2901206803091535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3681119606958283</v>
+        <v>0.366688976147218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>403</v>
@@ -6140,19 +6140,19 @@
         <v>330806</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301975</v>
+        <v>302787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>359237</v>
+        <v>360325</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3231978564056127</v>
+        <v>0.3231978564056128</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2950300828623321</v>
+        <v>0.2958234685939528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3509744765473129</v>
+        <v>0.3520372428679788</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>312115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>290157</v>
+        <v>287585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>334002</v>
+        <v>332776</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6511467437786421</v>
+        <v>0.651146743778642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6053354360851392</v>
+        <v>0.5999713450834102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6968082593907251</v>
+        <v>0.6942503565693621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>403</v>
@@ -6265,19 +6265,19 @@
         <v>285775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267946</v>
+        <v>267902</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>302043</v>
+        <v>301933</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6838024347672083</v>
+        <v>0.6838024347672084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6411425699918031</v>
+        <v>0.6410364241403076</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7227294314718671</v>
+        <v>0.7224657466178838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>707</v>
@@ -6286,19 +6286,19 @@
         <v>597891</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>568831</v>
+        <v>571376</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>622291</v>
+        <v>624772</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6663570353198713</v>
+        <v>0.6663570353198716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6339700053313932</v>
+        <v>0.6368060330229783</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6935516438607524</v>
+        <v>0.6963163918917773</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>167217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>145330</v>
+        <v>146556</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>189175</v>
+        <v>191747</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3488532562213582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3031917406092748</v>
+        <v>0.305749643430638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3946645639148609</v>
+        <v>0.4000286549165898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>179</v>
@@ -6336,19 +6336,19 @@
         <v>132145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115877</v>
+        <v>115987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149974</v>
+        <v>150018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3161975652327916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2772705685281328</v>
+        <v>0.2775342533821162</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3588574300081966</v>
+        <v>0.3589635758596922</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>352</v>
@@ -6357,19 +6357,19 @@
         <v>299362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>274962</v>
+        <v>272481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>328422</v>
+        <v>325877</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3336429646801285</v>
+        <v>0.3336429646801286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3064483561392476</v>
+        <v>0.3036836081082226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3660299946686068</v>
+        <v>0.3631939669770217</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>258000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>237882</v>
+        <v>235039</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>281014</v>
+        <v>278664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5561972682609881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5128252560573526</v>
+        <v>0.5066975454623508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6058096622947625</v>
+        <v>0.6007437495642381</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -6482,19 +6482,19 @@
         <v>103693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92595</v>
+        <v>93581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115302</v>
+        <v>115974</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5610094966114211</v>
+        <v>0.5610094966114212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5009642216769726</v>
+        <v>0.5063018823647387</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6238196852745687</v>
+        <v>0.6274532087756668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>426</v>
@@ -6503,19 +6503,19 @@
         <v>361694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>334462</v>
+        <v>336203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>385762</v>
+        <v>387562</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5575684122943116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5155891131750927</v>
+        <v>0.5182727870255937</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5946713164768015</v>
+        <v>0.5974461702516999</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>205865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>182851</v>
+        <v>185201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225983</v>
+        <v>228826</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4438027317390119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3941903377052375</v>
+        <v>0.3992562504357612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4871747439426474</v>
+        <v>0.4933024545376491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -6553,19 +6553,19 @@
         <v>81140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69531</v>
+        <v>68859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92238</v>
+        <v>91252</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4389905033885788</v>
+        <v>0.4389905033885789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3761803147254315</v>
+        <v>0.3725467912243332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4990357783230274</v>
+        <v>0.4936981176352612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>337</v>
@@ -6574,19 +6574,19 @@
         <v>287004</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>262936</v>
+        <v>261136</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314236</v>
+        <v>312495</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4424315877056884</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4053286835231987</v>
+        <v>0.4025538297483002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4844108868249072</v>
+        <v>0.4817272129744065</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>573043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>535990</v>
+        <v>537182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>607671</v>
+        <v>607765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5229933828082458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4891759386230076</v>
+        <v>0.4902646194743898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5545970474735108</v>
+        <v>0.5546822268559733</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>738</v>
@@ -6699,19 +6699,19 @@
         <v>505725</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>480448</v>
+        <v>479566</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>530056</v>
+        <v>529451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.604363157774126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5741557165392113</v>
+        <v>0.573102441384476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6334402701243759</v>
+        <v>0.6327166234104445</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1300</v>
@@ -6720,19 +6720,19 @@
         <v>1078768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1029496</v>
+        <v>1036788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1119947</v>
+        <v>1124026</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.55822744413184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5327305644134328</v>
+        <v>0.5365040622923634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.579536193053139</v>
+        <v>0.5816467929479936</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>522656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>488028</v>
+        <v>487934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>559709</v>
+        <v>558517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4770066171917544</v>
+        <v>0.4770066171917543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4454029525264894</v>
+        <v>0.4453177731440268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5108240613769924</v>
+        <v>0.5097353805256101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>461</v>
@@ -6770,19 +6770,19 @@
         <v>331065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306734</v>
+        <v>307339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356342</v>
+        <v>357224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.395636842225874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3665597298756242</v>
+        <v>0.3672833765895556</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4258442834607887</v>
+        <v>0.426897558615524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>983</v>
@@ -6791,19 +6791,19 @@
         <v>853721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>812542</v>
+        <v>808463</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>902993</v>
+        <v>895701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4417725558681599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4204638069468613</v>
+        <v>0.4183532070520066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4672694355865672</v>
+        <v>0.4634959377076366</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>224422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>200984</v>
+        <v>199214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>248950</v>
+        <v>246917</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4401739404787019</v>
+        <v>0.440173940478702</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3942029697884837</v>
+        <v>0.3907323924687629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4882826773491007</v>
+        <v>0.4842962555058294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>598</v>
@@ -6916,19 +6916,19 @@
         <v>397964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>373631</v>
+        <v>375098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>421519</v>
+        <v>421310</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.501526439907227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4708610519600966</v>
+        <v>0.4727108099663526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5312118705756258</v>
+        <v>0.530947631492568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>807</v>
@@ -6937,19 +6937,19 @@
         <v>622386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>590404</v>
+        <v>587106</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>657598</v>
+        <v>655891</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4775264474420015</v>
+        <v>0.4775264474420013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4529888802325385</v>
+        <v>0.4504581030682717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5045429731536606</v>
+        <v>0.5032332038762227</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>285426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>260898</v>
+        <v>262931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>308864</v>
+        <v>310634</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5598260595212979</v>
+        <v>0.559826059521298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5117173226508998</v>
+        <v>0.5157037444941707</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6057970302115162</v>
+        <v>0.6092676075312369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>639</v>
@@ -6987,19 +6987,19 @@
         <v>395541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>371986</v>
+        <v>372195</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>419874</v>
+        <v>418407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4984735600927729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4687881294243742</v>
+        <v>0.4690523685074319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5291389480399035</v>
+        <v>0.5272891900336474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>924</v>
@@ -7008,19 +7008,19 @@
         <v>680967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>645755</v>
+        <v>647462</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>712949</v>
+        <v>716247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5224735525579985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4954570268463395</v>
+        <v>0.4967667961237774</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5470111197674614</v>
+        <v>0.5495418969317282</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>147805</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122175</v>
+        <v>124140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>171057</v>
+        <v>170219</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6546214015167697</v>
+        <v>0.6546214015167696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5411093931141978</v>
+        <v>0.5498102983813553</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7576046116483007</v>
+        <v>0.7538935365810835</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>608</v>
@@ -7133,19 +7133,19 @@
         <v>473891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>445787</v>
+        <v>444753</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>503274</v>
+        <v>500394</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5788040197067607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5444785890866419</v>
+        <v>0.5432152611826198</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6146922702376144</v>
+        <v>0.6111742745212269</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>680</v>
@@ -7154,19 +7154,19 @@
         <v>621696</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>582991</v>
+        <v>586070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>659023</v>
+        <v>657556</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5951928151577244</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5581375119522209</v>
+        <v>0.5610850694989354</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.630928174086547</v>
+        <v>0.6295238173580483</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>77982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54730</v>
+        <v>55568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103612</v>
+        <v>101647</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3453785984832303</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2423953883516994</v>
+        <v>0.2461064634189169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4588906068858024</v>
+        <v>0.4501897016186455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>519</v>
@@ -7204,19 +7204,19 @@
         <v>344851</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>315468</v>
+        <v>318348</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>372955</v>
+        <v>373989</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4211959802932393</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3853077297623858</v>
+        <v>0.3888257254787736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4555214109133581</v>
+        <v>0.4567847388173812</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>552</v>
@@ -7225,19 +7225,19 @@
         <v>422833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>385506</v>
+        <v>386973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>461538</v>
+        <v>458459</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4048071848422757</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3690718259134529</v>
+        <v>0.3704761826419519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4418624880477788</v>
+        <v>0.4389149305010647</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1884604</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1815426</v>
+        <v>1815153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1951723</v>
+        <v>1939487</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.568208456870179</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5473515045769187</v>
+        <v>0.5472689501653457</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5884448644201584</v>
+        <v>0.584755754942113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2964</v>
@@ -7350,19 +7350,19 @@
         <v>2090567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2037151</v>
+        <v>2038777</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2142161</v>
+        <v>2143910</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.591705869457878</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5765871921231233</v>
+        <v>0.5770473974992112</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6063089240618846</v>
+        <v>0.6068040257115375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4738</v>
@@ -7371,19 +7371,19 @@
         <v>3975170</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3898411</v>
+        <v>3889074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4063981</v>
+        <v>4053949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5803282768553315</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5691224605372333</v>
+        <v>0.5677592436343466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5932936766708971</v>
+        <v>0.591829073709716</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1432143</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1365024</v>
+        <v>1377260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1501321</v>
+        <v>1501594</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.431791543129821</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4115551355798416</v>
+        <v>0.415244245057887</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4526484954230813</v>
+        <v>0.4527310498346542</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2141</v>
@@ -7421,19 +7421,19 @@
         <v>1442551</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1390957</v>
+        <v>1389208</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1495967</v>
+        <v>1494341</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.408294130542122</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3936910759381153</v>
+        <v>0.3931959742884625</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4234128078768766</v>
+        <v>0.4229526025007887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3551</v>
@@ -7442,19 +7442,19 @@
         <v>2874694</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2785883</v>
+        <v>2795915</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2951453</v>
+        <v>2960790</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4196717231446684</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4067063233291031</v>
+        <v>0.4081709262902841</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4308775394627669</v>
+        <v>0.4322407563656533</v>
       </c>
     </row>
     <row r="24">
